--- a/eva.xlsx
+++ b/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisantinovna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93FD08E9-4AEA-42CB-8F1F-E49C48D3F322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE5F2E-A296-4831-A96A-438D1F2F15B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{B6EB3EC1-07F3-4EBD-9342-3295622C9D35}"/>
   </bookViews>
@@ -141,12 +141,6 @@
     <t>твои шутки как пазл без одной детали — неполные</t>
   </si>
   <si>
-    <t>игра «повторюха»: усач делает движение, девочка повторяет, кто проиграл — читает рэп-куплет из головы</t>
-  </si>
-  <si>
-    <t>усач закрывает глаза, девочка рисует на его спине пальцем букву — он должен угадать</t>
-  </si>
-  <si>
     <t>изобразите своё первое свидание</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>какой самый абсурдный комплимент ты мог(ла) бы сделать себе, чтобы поднять настроение?</t>
+  </si>
+  <si>
+    <t>один из участников закрывает глаза, девочка рисует на его спине пальцем букву — он должен угадать</t>
+  </si>
+  <si>
+    <t>игра «повторюха»: один из участников делает движение, девочка повторяет, кто проиграл — читает рэп-куплет из головы</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C40"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -802,15 +802,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="46.5">
+    <row r="2" spans="1:3" ht="62">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="46.5">
@@ -818,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31">
@@ -829,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31">
@@ -840,10 +840,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="46.5">
@@ -851,10 +851,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31">
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31">
@@ -873,10 +873,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31">
@@ -884,10 +884,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="46.5">
@@ -895,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31">
@@ -906,10 +906,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31">
@@ -917,10 +917,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.5">
@@ -928,10 +928,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31">
@@ -939,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31">
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31">
@@ -961,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31">
@@ -972,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31">
@@ -983,10 +983,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31">
@@ -994,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31">
@@ -1005,10 +1005,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31">
@@ -1016,10 +1016,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31">
@@ -1027,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31">
@@ -1038,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31">
@@ -1049,10 +1049,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="46.5">
@@ -1060,10 +1060,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="46.5">
@@ -1071,10 +1071,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31">
@@ -1082,10 +1082,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="46.5">
@@ -1093,10 +1093,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31">
@@ -1104,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31">
@@ -1115,10 +1115,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="31">
@@ -1126,10 +1126,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31">
@@ -1137,10 +1137,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="31">
@@ -1148,10 +1148,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31">
@@ -1159,10 +1159,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31">
@@ -1170,10 +1170,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31">
@@ -1181,82 +1181,82 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="46.5">
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31">
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="46.5">
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="46.5">
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.5">
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31">
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.5">
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="46.5">
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="31">
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31">
       <c r="B46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46.5">
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="31">
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/eva.xlsx
+++ b/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisantinovna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BE5F2E-A296-4831-A96A-438D1F2F15B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80919D-893A-4281-8321-FDD55DDCC1EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{B6EB3EC1-07F3-4EBD-9342-3295622C9D35}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>синхронно покажите свою самую кринжовую походку</t>
   </si>
   <si>
-    <t>сыргайтре в "скажи без сарказма" (тут мб надо какие-то предложения придумать)</t>
-  </si>
-  <si>
     <t>изобразите друг друга по очереди — с голосом</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>сыграйте в камень-ножницы-бумага — проигравший говорит правду на любой вопрос</t>
   </si>
   <si>
-    <t>по очереди говорите комплимент но обязательно странным голосом</t>
-  </si>
-  <si>
     <t>покажите как вы бы рекламировали друг друга</t>
   </si>
   <si>
@@ -384,10 +378,16 @@
     <t>какой самый абсурдный комплимент ты мог(ла) бы сделать себе, чтобы поднять настроение?</t>
   </si>
   <si>
-    <t>один из участников закрывает глаза, девочка рисует на его спине пальцем букву — он должен угадать</t>
-  </si>
-  <si>
-    <t>игра «повторюха»: один из участников делает движение, девочка повторяет, кто проиграл — читает рэп-куплет из головы</t>
+    <t>Haijin закрывает глаза, девочка рисует на его спине пальцем букву — он должен угадать</t>
+  </si>
+  <si>
+    <t>игра «повторюха»: Haijin делает движение, девочка повторяет, кто проиграл — читает рэп-куплет из головы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сыграйтре в "скажи без сарказма" </t>
+  </si>
+  <si>
+    <t>по очереди говорите комплимент, но обязательно странным голосом</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262BEB76-5244-4E53-B13B-AA7584ABBFE1}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -802,15 +802,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="62">
+    <row r="2" spans="1:3" ht="46.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="46.5">
@@ -818,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31">
@@ -832,7 +832,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31">
@@ -843,18 +843,18 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="31">
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="31">
@@ -873,10 +873,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31">
@@ -884,10 +884,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="46.5">
@@ -895,10 +895,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31">
@@ -906,10 +906,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31">
@@ -917,10 +917,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46.5">
@@ -928,10 +928,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31">
@@ -939,10 +939,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31">
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31">
@@ -961,10 +961,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31">
@@ -972,10 +972,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="31">
@@ -983,10 +983,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="31">
@@ -994,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="31">
@@ -1005,10 +1005,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31">
@@ -1016,10 +1016,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31">
@@ -1027,10 +1027,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31">
@@ -1038,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31">
@@ -1049,10 +1049,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="46.5">
@@ -1060,10 +1060,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="46.5">
@@ -1071,10 +1071,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31">
@@ -1082,10 +1082,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="46.5">
@@ -1093,10 +1093,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31">
@@ -1104,10 +1104,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31">
@@ -1115,10 +1115,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="31">
@@ -1126,10 +1126,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31">
@@ -1137,10 +1137,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="31">
@@ -1148,10 +1148,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31">
@@ -1159,10 +1159,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31">
@@ -1170,10 +1170,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31">
@@ -1181,82 +1181,82 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="46.5">
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="46.5">
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="46.5">
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.5">
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31">
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.5">
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="46.5">
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="31">
       <c r="B45" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31">
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46.5">
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="31">
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
